--- a/src/main/webapp/WEB-INF/books/report/Travel Insurance Form.xlsx
+++ b/src/main/webapp/WEB-INF/books/report/Travel Insurance Form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hawk/Documents/workspace/KEIKAI-SPACE/dev-ref/src/main/webapp/WEB-INF/book/report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hawk/Documents/workspace/KEIKAI-SPACE/dev-ref/src/main/webapp/WEB-INF/books/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAC31B8-C4AD-D94D-9B76-DC23975DCB75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689ADB0F-647B-5E4D-84E3-EF66CB9B96CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{576F5239-AC1C-3641-A289-08754DDE9639}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24980" windowHeight="19800" xr2:uid="{576F5239-AC1C-3641-A289-08754DDE9639}"/>
   </bookViews>
   <sheets>
     <sheet name="Insurance" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>General information</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Cover required:</t>
   </si>
   <si>
-    <t>or</t>
-  </si>
-  <si>
     <t>Cover required</t>
   </si>
   <si>
@@ -135,13 +132,7 @@
     <t>50km</t>
   </si>
   <si>
-    <t>100km</t>
-  </si>
-  <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -274,9 +265,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -293,6 +281,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -309,650 +300,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>787400</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>139700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1033" name="Check Box 9" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1033"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>203200</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>139700</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>508000</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1036" name="Check Box 12" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1036"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>203200</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1037" name="Check Box 13" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1037"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>203200</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1038" name="Check Box 14" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1038"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>203200</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1039" name="Check Box 15" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1039"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>203200</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1041" name="Check Box 17" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1041"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>50800</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>127000</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>139700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1042" name="Check Box 18" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1042"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1043" name="Check Box 19" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1043"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>1333500</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1045" name="Check Box 21" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1045"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1251,11 +598,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4344196-FC32-1C4B-9DA2-2FE4D3A7A0CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4344196-FC32-1C4B-9DA2-2FE4D3A7A0CC}">
   <dimension ref="B2:O40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M2"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1276,28 +623,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="B2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1391,10 +738,10 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="2:15" ht="20" x14ac:dyDescent="0.2">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1471,12 +818,10 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="M13" s="1"/>
       <c r="N13" s="4"/>
       <c r="O13" s="1"/>
     </row>
@@ -1513,19 +858,19 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="2:15" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
+      <c r="C16" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
       <c r="N16" s="17"/>
       <c r="O16" s="1"/>
     </row>
@@ -1546,7 +891,7 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -1610,21 +955,17 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1648,7 +989,7 @@
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1680,7 +1021,7 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1711,10 +1052,10 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="2:15" ht="20" x14ac:dyDescent="0.2">
-      <c r="B28" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="23"/>
+      <c r="B28" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="22"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1744,116 +1085,116 @@
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="2:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="C30" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
+      <c r="C30" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L30" s="7"/>
       <c r="M30" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N30" s="8"/>
       <c r="O30" s="1"/>
     </row>
     <row r="31" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
+      <c r="C31" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
       <c r="F31" s="9"/>
       <c r="G31" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
-      <c r="J31" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="K31" s="20"/>
+      <c r="J31" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="19"/>
       <c r="L31" s="5"/>
       <c r="M31" s="11"/>
       <c r="N31" s="16"/>
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
+      <c r="C32" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
       <c r="F32" s="9"/>
       <c r="G32" s="18">
         <v>250000</v>
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
-      <c r="J32" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="K32" s="20"/>
+      <c r="J32" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="19"/>
       <c r="L32" s="5"/>
       <c r="M32" s="11"/>
       <c r="N32" s="16"/>
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="3:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
+      <c r="C33" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="9"/>
       <c r="G33" s="18"/>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
-      <c r="J33" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K33" s="20"/>
+      <c r="J33" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="19"/>
       <c r="L33" s="5"/>
       <c r="M33" s="11"/>
       <c r="N33" s="16"/>
       <c r="O33" s="1"/>
     </row>
     <row r="34" spans="3:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
+      <c r="C34" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
       <c r="F34" s="9"/>
       <c r="G34" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
-      <c r="J34" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K34" s="20"/>
+      <c r="J34" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="19"/>
       <c r="L34" s="5"/>
       <c r="M34" s="11"/>
       <c r="N34" s="16"/>
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="3:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
+      <c r="C35" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
       <c r="F35" s="9"/>
       <c r="G35" s="13">
         <v>5000</v>
@@ -1871,7 +1212,7 @@
     </row>
     <row r="36" spans="3:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -1891,32 +1232,32 @@
       <c r="O36" s="1"/>
     </row>
     <row r="37" spans="3:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
+      <c r="C37" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
       <c r="F37" s="9"/>
       <c r="G37" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
-      <c r="J37" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="K37" s="20"/>
+      <c r="J37" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" s="19"/>
       <c r="L37" s="5"/>
       <c r="M37" s="11"/>
       <c r="N37" s="16"/>
       <c r="O37" s="1"/>
     </row>
     <row r="38" spans="3:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
+      <c r="C38" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
       <c r="F38" s="9"/>
       <c r="G38" s="13">
         <v>10000</v>
@@ -1964,6 +1305,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="C31:E31"/>
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="J37:K37"/>
     <mergeCell ref="J38:K38"/>
@@ -1980,219 +1327,15 @@
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="J35:K35"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="C31:E31"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K13" xr:uid="{233F514D-5956-2143-AE3B-FDD4D8C2E1E5}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G22" xr:uid="{E1D174FD-D695-DB48-BDC6-82135A3AC2AA}">
+      <formula1>"50km, 100km"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1033" r:id="rId3" name="Check Box 9">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>20</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>787400</xdr:colOff>
-                    <xdr:row>22</xdr:row>
-                    <xdr:rowOff>139700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1036" r:id="rId4" name="Check Box 12">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>203200</xdr:colOff>
-                    <xdr:row>14</xdr:row>
-                    <xdr:rowOff>139700</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>25400</xdr:colOff>
-                    <xdr:row>15</xdr:row>
-                    <xdr:rowOff>508000</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1037" r:id="rId5" name="Check Box 13">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>203200</xdr:colOff>
-                    <xdr:row>16</xdr:row>
-                    <xdr:rowOff>63500</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>19</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1038" r:id="rId6" name="Check Box 14">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>203200</xdr:colOff>
-                    <xdr:row>20</xdr:row>
-                    <xdr:rowOff>76200</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>23</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1039" r:id="rId7" name="Check Box 15">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>203200</xdr:colOff>
-                    <xdr:row>22</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>25</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1041" r:id="rId8" name="Check Box 17">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>203200</xdr:colOff>
-                    <xdr:row>24</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>27</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1042" r:id="rId9" name="Check Box 18">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>50800</xdr:colOff>
-                    <xdr:row>20</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>127000</xdr:colOff>
-                    <xdr:row>22</xdr:row>
-                    <xdr:rowOff>139700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1043" r:id="rId10" name="Check Box 19">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>76200</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>25400</xdr:colOff>
-                    <xdr:row>14</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1045" r:id="rId11" name="Check Box 21">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>1333500</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>76200</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>12</xdr:col>
-                    <xdr:colOff>25400</xdr:colOff>
-                    <xdr:row>14</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
 </worksheet>
 </file>